--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,194 +19,218 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>列A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>E6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09-20 13:14:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09-20 13:14:00.111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +244,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,8 +271,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,185 +556,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>A3</t>
   </si>
@@ -27,6 +27,30 @@
     <t>A4</t>
   </si>
   <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A5</t>
   </si>
   <si>
@@ -36,6 +60,10 @@
     <t>A7</t>
   </si>
   <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B4</t>
   </si>
   <si>
@@ -48,6 +76,10 @@
     <t>B7</t>
   </si>
   <si>
+    <t>C4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C5</t>
   </si>
   <si>
@@ -57,172 +89,192 @@
     <t>C7</t>
   </si>
   <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D6</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
+    <t>E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>E7</t>
   </si>
   <si>
-    <t>列A</t>
+    <t>F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>列B</t>
+    <t>2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>列C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-20 13:14:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-20 13:14:00.111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G13</t>
+    <t>5C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -230,23 +282,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -271,9 +327,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -556,211 +611,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -768,4 +800,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>